--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1014,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ3">
         <v>0.75</v>
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ9">
         <v>1.13</v>
@@ -3414,7 +3414,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -5471,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ22">
         <v>0.43</v>
@@ -5680,7 +5680,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR23">
         <v>1.53</v>
@@ -7534,7 +7534,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR32">
         <v>1.14</v>
@@ -8149,7 +8149,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -11033,7 +11033,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ49">
         <v>1.63</v>
@@ -11860,7 +11860,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR53">
         <v>1.13</v>
@@ -13505,7 +13505,7 @@
         <v>1.6</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ61">
         <v>1.38</v>
@@ -14332,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -15565,7 +15565,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ71">
         <v>1.43</v>
@@ -17010,7 +17010,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ78">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR78">
         <v>1.92</v>
@@ -17831,7 +17831,7 @@
         <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ82">
         <v>0.75</v>
@@ -19764,6 +19764,212 @@
       </c>
       <c r="BP91">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7452349</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45618.625</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>71</v>
+      </c>
+      <c r="H92" t="s">
+        <v>70</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>141</v>
+      </c>
+      <c r="P92" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q92">
+        <v>2.88</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>4</v>
+      </c>
+      <c r="T92">
+        <v>1.4</v>
+      </c>
+      <c r="U92">
+        <v>2.75</v>
+      </c>
+      <c r="V92">
+        <v>2.75</v>
+      </c>
+      <c r="W92">
+        <v>1.4</v>
+      </c>
+      <c r="X92">
+        <v>8</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>2.15</v>
+      </c>
+      <c r="AA92">
+        <v>3.2</v>
+      </c>
+      <c r="AB92">
+        <v>3.5</v>
+      </c>
+      <c r="AC92">
+        <v>1.03</v>
+      </c>
+      <c r="AD92">
+        <v>11.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.29</v>
+      </c>
+      <c r="AF92">
+        <v>3.55</v>
+      </c>
+      <c r="AG92">
+        <v>2</v>
+      </c>
+      <c r="AH92">
+        <v>1.8</v>
+      </c>
+      <c r="AI92">
+        <v>1.8</v>
+      </c>
+      <c r="AJ92">
+        <v>1.95</v>
+      </c>
+      <c r="AK92">
+        <v>1.3</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>1.83</v>
+      </c>
+      <c r="AN92">
+        <v>2</v>
+      </c>
+      <c r="AO92">
+        <v>1.33</v>
+      </c>
+      <c r="AP92">
+        <v>2.11</v>
+      </c>
+      <c r="AQ92">
+        <v>1.14</v>
+      </c>
+      <c r="AR92">
+        <v>1.68</v>
+      </c>
+      <c r="AS92">
+        <v>1.16</v>
+      </c>
+      <c r="AT92">
+        <v>2.84</v>
+      </c>
+      <c r="AU92">
+        <v>4</v>
+      </c>
+      <c r="AV92">
+        <v>0</v>
+      </c>
+      <c r="AW92">
+        <v>5</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>14</v>
+      </c>
+      <c r="AZ92">
+        <v>6</v>
+      </c>
+      <c r="BA92">
+        <v>5</v>
+      </c>
+      <c r="BB92">
+        <v>1</v>
+      </c>
+      <c r="BC92">
+        <v>6</v>
+      </c>
+      <c r="BD92">
+        <v>1.68</v>
+      </c>
+      <c r="BE92">
+        <v>6.5</v>
+      </c>
+      <c r="BF92">
+        <v>2.3</v>
+      </c>
+      <c r="BG92">
+        <v>1.2</v>
+      </c>
+      <c r="BH92">
+        <v>3.9</v>
+      </c>
+      <c r="BI92">
+        <v>1.37</v>
+      </c>
+      <c r="BJ92">
+        <v>2.8</v>
+      </c>
+      <c r="BK92">
+        <v>2.1</v>
+      </c>
+      <c r="BL92">
+        <v>2.17</v>
+      </c>
+      <c r="BM92">
+        <v>1.96</v>
+      </c>
+      <c r="BN92">
+        <v>1.74</v>
+      </c>
+      <c r="BO92">
+        <v>2.43</v>
+      </c>
+      <c r="BP92">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,18 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['55', '67']</t>
+  </si>
+  <si>
+    <t>['66', '84']</t>
+  </si>
+  <si>
+    <t>['19', '81']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -544,9 +556,6 @@
     <t>['33', '36', '56', '90']</t>
   </si>
   <si>
-    <t>['36']</t>
-  </si>
-  <si>
     <t>['16', '20', '38', '85']</t>
   </si>
   <si>
@@ -653,6 +662,9 @@
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['39', '49']</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1891,7 +1903,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2097,7 +2109,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2178,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2303,7 +2315,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2509,7 +2521,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2587,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ8">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2715,7 +2727,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2999,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3127,7 +3139,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3205,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3333,7 +3345,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3411,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
         <v>1.14</v>
@@ -3620,7 +3632,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ13">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4029,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ15">
         <v>0.75</v>
@@ -4238,7 +4250,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ16">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR16">
         <v>1.37</v>
@@ -4363,7 +4375,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4441,7 +4453,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
         <v>1.63</v>
@@ -4569,7 +4581,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4650,7 +4662,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>1.15</v>
@@ -4775,7 +4787,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5059,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ20">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR20">
         <v>1.75</v>
@@ -5187,7 +5199,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5265,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5393,7 +5405,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5474,7 +5486,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ22">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR22">
         <v>1.44</v>
@@ -5599,7 +5611,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5805,7 +5817,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5883,7 +5895,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -6011,7 +6023,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6217,7 +6229,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6423,7 +6435,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6501,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6629,7 +6641,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6835,7 +6847,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6913,10 +6925,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR29">
         <v>1.88</v>
@@ -7041,7 +7053,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7119,10 +7131,10 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>1.16</v>
@@ -7247,7 +7259,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7328,7 +7340,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ31">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR31">
         <v>1.74</v>
@@ -7453,7 +7465,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7531,7 +7543,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
         <v>1.14</v>
@@ -7659,7 +7671,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7737,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -7865,7 +7877,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7946,7 +7958,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ34">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.05</v>
@@ -8071,7 +8083,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8277,7 +8289,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8564,7 +8576,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR37">
         <v>1.54</v>
@@ -8770,7 +8782,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ38">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR38">
         <v>1.09</v>
@@ -8895,7 +8907,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9101,7 +9113,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9179,10 +9191,10 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.87</v>
@@ -9307,7 +9319,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9385,10 +9397,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -9513,7 +9525,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9797,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -9925,7 +9937,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10003,10 +10015,10 @@
         <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR44">
         <v>0.9</v>
@@ -10131,7 +10143,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10209,7 +10221,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10337,7 +10349,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10418,7 +10430,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ46">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -10543,7 +10555,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10624,7 +10636,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ47">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR47">
         <v>1.58</v>
@@ -11161,7 +11173,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11445,10 +11457,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ51">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -11573,7 +11585,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11651,7 +11663,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>1.13</v>
@@ -11985,7 +11997,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12066,7 +12078,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ54">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12269,7 +12281,7 @@
         <v>0.75</v>
       </c>
       <c r="AP55">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -12397,7 +12409,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12681,10 +12693,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ57">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR57">
         <v>1.87</v>
@@ -12887,7 +12899,7 @@
         <v>0.6</v>
       </c>
       <c r="AP58">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
@@ -13015,7 +13027,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13096,7 +13108,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ59">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>1.04</v>
@@ -13221,7 +13233,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13427,7 +13439,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13508,7 +13520,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ61">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR61">
         <v>1.74</v>
@@ -13633,7 +13645,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13839,7 +13851,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -13917,7 +13929,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14045,7 +14057,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14123,10 +14135,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR64">
         <v>1.45</v>
@@ -14251,7 +14263,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14663,7 +14675,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -14869,7 +14881,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>1.53</v>
@@ -14947,10 +14959,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR68">
         <v>1.76</v>
@@ -15156,7 +15168,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR69">
         <v>1.17</v>
@@ -15281,7 +15293,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15359,7 +15371,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
         <v>1.63</v>
@@ -15487,7 +15499,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>1.95</v>
@@ -15568,7 +15580,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ71">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -15693,7 +15705,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15771,7 +15783,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -15980,7 +15992,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -16598,7 +16610,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ76">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR76">
         <v>1.38</v>
@@ -16723,7 +16735,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17007,7 +17019,7 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ78">
         <v>1.14</v>
@@ -17213,7 +17225,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17341,7 +17353,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17419,7 +17431,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ80">
         <v>1.63</v>
@@ -17547,7 +17559,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -17625,10 +17637,10 @@
         <v>1.14</v>
       </c>
       <c r="AP81">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ81">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR81">
         <v>1.78</v>
@@ -17753,7 +17765,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17834,7 +17846,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ82">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -17959,7 +17971,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18040,7 +18052,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ83">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18165,7 +18177,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18243,10 +18255,10 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR84">
         <v>1.31</v>
@@ -18371,7 +18383,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18449,10 +18461,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ85">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR85">
         <v>1.76</v>
@@ -18989,7 +19001,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19401,7 +19413,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19607,7 +19619,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -19970,6 +19982,1036 @@
       </c>
       <c r="BP92">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7452347</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45620.41666666666</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s">
+        <v>73</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>156</v>
+      </c>
+      <c r="P93" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q93">
+        <v>2.1</v>
+      </c>
+      <c r="R93">
+        <v>2.5</v>
+      </c>
+      <c r="S93">
+        <v>5</v>
+      </c>
+      <c r="T93">
+        <v>1.3</v>
+      </c>
+      <c r="U93">
+        <v>3.4</v>
+      </c>
+      <c r="V93">
+        <v>2.38</v>
+      </c>
+      <c r="W93">
+        <v>1.53</v>
+      </c>
+      <c r="X93">
+        <v>6</v>
+      </c>
+      <c r="Y93">
+        <v>1.13</v>
+      </c>
+      <c r="Z93">
+        <v>1.57</v>
+      </c>
+      <c r="AA93">
+        <v>4.2</v>
+      </c>
+      <c r="AB93">
+        <v>5.25</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>1.6</v>
+      </c>
+      <c r="AH93">
+        <v>2.3</v>
+      </c>
+      <c r="AI93">
+        <v>1.67</v>
+      </c>
+      <c r="AJ93">
+        <v>2.1</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>1.57</v>
+      </c>
+      <c r="AO93">
+        <v>0.14</v>
+      </c>
+      <c r="AP93">
+        <v>1.75</v>
+      </c>
+      <c r="AQ93">
+        <v>0.13</v>
+      </c>
+      <c r="AR93">
+        <v>1.44</v>
+      </c>
+      <c r="AS93">
+        <v>1.26</v>
+      </c>
+      <c r="AT93">
+        <v>2.7</v>
+      </c>
+      <c r="AU93">
+        <v>7</v>
+      </c>
+      <c r="AV93">
+        <v>2</v>
+      </c>
+      <c r="AW93">
+        <v>8</v>
+      </c>
+      <c r="AX93">
+        <v>4</v>
+      </c>
+      <c r="AY93">
+        <v>20</v>
+      </c>
+      <c r="AZ93">
+        <v>10</v>
+      </c>
+      <c r="BA93">
+        <v>9</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
+      </c>
+      <c r="BC93">
+        <v>10</v>
+      </c>
+      <c r="BD93">
+        <v>0</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>0</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>0</v>
+      </c>
+      <c r="BI93">
+        <v>0</v>
+      </c>
+      <c r="BJ93">
+        <v>0</v>
+      </c>
+      <c r="BK93">
+        <v>0</v>
+      </c>
+      <c r="BL93">
+        <v>0</v>
+      </c>
+      <c r="BM93">
+        <v>0</v>
+      </c>
+      <c r="BN93">
+        <v>0</v>
+      </c>
+      <c r="BO93">
+        <v>0</v>
+      </c>
+      <c r="BP93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7452348</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45620.41666666666</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>78</v>
+      </c>
+      <c r="H94" t="s">
+        <v>74</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>87</v>
+      </c>
+      <c r="P94" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q94">
+        <v>3.4</v>
+      </c>
+      <c r="R94">
+        <v>2.38</v>
+      </c>
+      <c r="S94">
+        <v>2.75</v>
+      </c>
+      <c r="T94">
+        <v>1.29</v>
+      </c>
+      <c r="U94">
+        <v>3.5</v>
+      </c>
+      <c r="V94">
+        <v>2.38</v>
+      </c>
+      <c r="W94">
+        <v>1.53</v>
+      </c>
+      <c r="X94">
+        <v>5.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.14</v>
+      </c>
+      <c r="Z94">
+        <v>3.1</v>
+      </c>
+      <c r="AA94">
+        <v>3.6</v>
+      </c>
+      <c r="AB94">
+        <v>2.15</v>
+      </c>
+      <c r="AC94">
+        <v>3.91</v>
+      </c>
+      <c r="AD94">
+        <v>1.27</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>1.53</v>
+      </c>
+      <c r="AH94">
+        <v>2.4</v>
+      </c>
+      <c r="AI94">
+        <v>1.5</v>
+      </c>
+      <c r="AJ94">
+        <v>2.5</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>1.43</v>
+      </c>
+      <c r="AO94">
+        <v>0.75</v>
+      </c>
+      <c r="AP94">
+        <v>1.38</v>
+      </c>
+      <c r="AQ94">
+        <v>0.78</v>
+      </c>
+      <c r="AR94">
+        <v>1.41</v>
+      </c>
+      <c r="AS94">
+        <v>1.39</v>
+      </c>
+      <c r="AT94">
+        <v>2.8</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>5</v>
+      </c>
+      <c r="AW94">
+        <v>5</v>
+      </c>
+      <c r="AX94">
+        <v>6</v>
+      </c>
+      <c r="AY94">
+        <v>11</v>
+      </c>
+      <c r="AZ94">
+        <v>21</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>11</v>
+      </c>
+      <c r="BC94">
+        <v>11</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>0</v>
+      </c>
+      <c r="BG94">
+        <v>0</v>
+      </c>
+      <c r="BH94">
+        <v>0</v>
+      </c>
+      <c r="BI94">
+        <v>0</v>
+      </c>
+      <c r="BJ94">
+        <v>0</v>
+      </c>
+      <c r="BK94">
+        <v>1.91</v>
+      </c>
+      <c r="BL94">
+        <v>0</v>
+      </c>
+      <c r="BM94">
+        <v>0</v>
+      </c>
+      <c r="BN94">
+        <v>0</v>
+      </c>
+      <c r="BO94">
+        <v>0</v>
+      </c>
+      <c r="BP94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7452350</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45620.5</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>157</v>
+      </c>
+      <c r="P95" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q95">
+        <v>5.5</v>
+      </c>
+      <c r="R95">
+        <v>2.5</v>
+      </c>
+      <c r="S95">
+        <v>2.05</v>
+      </c>
+      <c r="T95">
+        <v>1.29</v>
+      </c>
+      <c r="U95">
+        <v>3.5</v>
+      </c>
+      <c r="V95">
+        <v>2.25</v>
+      </c>
+      <c r="W95">
+        <v>1.57</v>
+      </c>
+      <c r="X95">
+        <v>5.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.14</v>
+      </c>
+      <c r="Z95">
+        <v>5.75</v>
+      </c>
+      <c r="AA95">
+        <v>4</v>
+      </c>
+      <c r="AB95">
+        <v>1.55</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>1.6</v>
+      </c>
+      <c r="AH95">
+        <v>2.3</v>
+      </c>
+      <c r="AI95">
+        <v>1.67</v>
+      </c>
+      <c r="AJ95">
+        <v>2.1</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>1.14</v>
+      </c>
+      <c r="AO95">
+        <v>1.38</v>
+      </c>
+      <c r="AP95">
+        <v>1.13</v>
+      </c>
+      <c r="AQ95">
+        <v>1.33</v>
+      </c>
+      <c r="AR95">
+        <v>1.38</v>
+      </c>
+      <c r="AS95">
+        <v>1.81</v>
+      </c>
+      <c r="AT95">
+        <v>3.19</v>
+      </c>
+      <c r="AU95">
+        <v>6</v>
+      </c>
+      <c r="AV95">
+        <v>6</v>
+      </c>
+      <c r="AW95">
+        <v>6</v>
+      </c>
+      <c r="AX95">
+        <v>5</v>
+      </c>
+      <c r="AY95">
+        <v>13</v>
+      </c>
+      <c r="AZ95">
+        <v>16</v>
+      </c>
+      <c r="BA95">
+        <v>6</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>9</v>
+      </c>
+      <c r="BD95">
+        <v>0</v>
+      </c>
+      <c r="BE95">
+        <v>0</v>
+      </c>
+      <c r="BF95">
+        <v>0</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BH95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
+        <v>0</v>
+      </c>
+      <c r="BJ95">
+        <v>0</v>
+      </c>
+      <c r="BK95">
+        <v>2.2</v>
+      </c>
+      <c r="BL95">
+        <v>0</v>
+      </c>
+      <c r="BM95">
+        <v>0</v>
+      </c>
+      <c r="BN95">
+        <v>0</v>
+      </c>
+      <c r="BO95">
+        <v>0</v>
+      </c>
+      <c r="BP95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7452345</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45620.58333333334</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s">
+        <v>75</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>158</v>
+      </c>
+      <c r="P96" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q96">
+        <v>1.73</v>
+      </c>
+      <c r="R96">
+        <v>2.63</v>
+      </c>
+      <c r="S96">
+        <v>8</v>
+      </c>
+      <c r="T96">
+        <v>1.29</v>
+      </c>
+      <c r="U96">
+        <v>3.5</v>
+      </c>
+      <c r="V96">
+        <v>2.25</v>
+      </c>
+      <c r="W96">
+        <v>1.57</v>
+      </c>
+      <c r="X96">
+        <v>5.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.14</v>
+      </c>
+      <c r="Z96">
+        <v>1.29</v>
+      </c>
+      <c r="AA96">
+        <v>6.25</v>
+      </c>
+      <c r="AB96">
+        <v>8</v>
+      </c>
+      <c r="AC96">
+        <v>1.02</v>
+      </c>
+      <c r="AD96">
+        <v>15</v>
+      </c>
+      <c r="AE96">
+        <v>1.16</v>
+      </c>
+      <c r="AF96">
+        <v>5</v>
+      </c>
+      <c r="AG96">
+        <v>1.53</v>
+      </c>
+      <c r="AH96">
+        <v>2.4</v>
+      </c>
+      <c r="AI96">
+        <v>1.95</v>
+      </c>
+      <c r="AJ96">
+        <v>1.8</v>
+      </c>
+      <c r="AK96">
+        <v>1.02</v>
+      </c>
+      <c r="AL96">
+        <v>1.1</v>
+      </c>
+      <c r="AM96">
+        <v>3.75</v>
+      </c>
+      <c r="AN96">
+        <v>2.14</v>
+      </c>
+      <c r="AO96">
+        <v>0.43</v>
+      </c>
+      <c r="AP96">
+        <v>2.25</v>
+      </c>
+      <c r="AQ96">
+        <v>0.38</v>
+      </c>
+      <c r="AR96">
+        <v>1.89</v>
+      </c>
+      <c r="AS96">
+        <v>1.18</v>
+      </c>
+      <c r="AT96">
+        <v>3.07</v>
+      </c>
+      <c r="AU96">
+        <v>16</v>
+      </c>
+      <c r="AV96">
+        <v>5</v>
+      </c>
+      <c r="AW96">
+        <v>7</v>
+      </c>
+      <c r="AX96">
+        <v>5</v>
+      </c>
+      <c r="AY96">
+        <v>35</v>
+      </c>
+      <c r="AZ96">
+        <v>11</v>
+      </c>
+      <c r="BA96">
+        <v>13</v>
+      </c>
+      <c r="BB96">
+        <v>1</v>
+      </c>
+      <c r="BC96">
+        <v>14</v>
+      </c>
+      <c r="BD96">
+        <v>1.16</v>
+      </c>
+      <c r="BE96">
+        <v>8.9</v>
+      </c>
+      <c r="BF96">
+        <v>6.6</v>
+      </c>
+      <c r="BG96">
+        <v>1.1</v>
+      </c>
+      <c r="BH96">
+        <v>4.8</v>
+      </c>
+      <c r="BI96">
+        <v>1.24</v>
+      </c>
+      <c r="BJ96">
+        <v>3.55</v>
+      </c>
+      <c r="BK96">
+        <v>1.91</v>
+      </c>
+      <c r="BL96">
+        <v>2.52</v>
+      </c>
+      <c r="BM96">
+        <v>1.78</v>
+      </c>
+      <c r="BN96">
+        <v>1.92</v>
+      </c>
+      <c r="BO96">
+        <v>2.28</v>
+      </c>
+      <c r="BP96">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7452346</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45621.625</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H97" t="s">
+        <v>72</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>159</v>
+      </c>
+      <c r="P97" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q97">
+        <v>2.2</v>
+      </c>
+      <c r="R97">
+        <v>2.5</v>
+      </c>
+      <c r="S97">
+        <v>4.5</v>
+      </c>
+      <c r="T97">
+        <v>1.29</v>
+      </c>
+      <c r="U97">
+        <v>3.5</v>
+      </c>
+      <c r="V97">
+        <v>2.25</v>
+      </c>
+      <c r="W97">
+        <v>1.57</v>
+      </c>
+      <c r="X97">
+        <v>5.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.14</v>
+      </c>
+      <c r="Z97">
+        <v>1.67</v>
+      </c>
+      <c r="AA97">
+        <v>4.2</v>
+      </c>
+      <c r="AB97">
+        <v>4.5</v>
+      </c>
+      <c r="AC97">
+        <v>1.04</v>
+      </c>
+      <c r="AD97">
+        <v>18.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.19</v>
+      </c>
+      <c r="AF97">
+        <v>4.7</v>
+      </c>
+      <c r="AG97">
+        <v>1.5</v>
+      </c>
+      <c r="AH97">
+        <v>2.5</v>
+      </c>
+      <c r="AI97">
+        <v>1.5</v>
+      </c>
+      <c r="AJ97">
+        <v>2.5</v>
+      </c>
+      <c r="AK97">
+        <v>1.2</v>
+      </c>
+      <c r="AL97">
+        <v>1.19</v>
+      </c>
+      <c r="AM97">
+        <v>2.25</v>
+      </c>
+      <c r="AN97">
+        <v>2.57</v>
+      </c>
+      <c r="AO97">
+        <v>1.43</v>
+      </c>
+      <c r="AP97">
+        <v>2.63</v>
+      </c>
+      <c r="AQ97">
+        <v>1.25</v>
+      </c>
+      <c r="AR97">
+        <v>1.78</v>
+      </c>
+      <c r="AS97">
+        <v>1.16</v>
+      </c>
+      <c r="AT97">
+        <v>2.94</v>
+      </c>
+      <c r="AU97">
+        <v>2</v>
+      </c>
+      <c r="AV97">
+        <v>5</v>
+      </c>
+      <c r="AW97">
+        <v>6</v>
+      </c>
+      <c r="AX97">
+        <v>9</v>
+      </c>
+      <c r="AY97">
+        <v>10</v>
+      </c>
+      <c r="AZ97">
+        <v>19</v>
+      </c>
+      <c r="BA97">
+        <v>2</v>
+      </c>
+      <c r="BB97">
+        <v>6</v>
+      </c>
+      <c r="BC97">
+        <v>8</v>
+      </c>
+      <c r="BD97">
+        <v>1.28</v>
+      </c>
+      <c r="BE97">
+        <v>7.4</v>
+      </c>
+      <c r="BF97">
+        <v>4.7</v>
+      </c>
+      <c r="BG97">
+        <v>1.15</v>
+      </c>
+      <c r="BH97">
+        <v>4.05</v>
+      </c>
+      <c r="BI97">
+        <v>1.31</v>
+      </c>
+      <c r="BJ97">
+        <v>3.05</v>
+      </c>
+      <c r="BK97">
+        <v>2.1</v>
+      </c>
+      <c r="BL97">
+        <v>2.18</v>
+      </c>
+      <c r="BM97">
+        <v>2</v>
+      </c>
+      <c r="BN97">
+        <v>1.7</v>
+      </c>
+      <c r="BO97">
+        <v>2.68</v>
+      </c>
+      <c r="BP97">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -20822,7 +20822,7 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45621.625</v>
+        <v>45621.63541666666</v>
       </c>
       <c r="F97">
         <v>16</v>
@@ -20948,22 +20948,22 @@
         <v>2.94</v>
       </c>
       <c r="AU97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV97">
         <v>5</v>
       </c>
       <c r="AW97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX97">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AY97">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ97">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA97">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,9 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -527,9 +530,6 @@
   </si>
   <si>
     <t>['52', '66']</t>
-  </si>
-  <si>
-    <t>['34']</t>
   </si>
   <si>
     <t>['71']</t>
@@ -1026,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1572,7 +1572,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2109,7 +2109,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2315,7 +2315,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2521,7 +2521,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2727,7 +2727,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3139,7 +3139,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3345,7 +3345,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ13">
         <v>0.13</v>
@@ -4044,7 +4044,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4581,7 +4581,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4787,7 +4787,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5199,7 +5199,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5405,7 +5405,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
         <v>1.14</v>
@@ -6104,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
         <v>0.91</v>
@@ -8367,7 +8367,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36">
         <v>1.63</v>
@@ -9812,7 +9812,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -10839,7 +10839,7 @@
         <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -12284,7 +12284,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR55">
         <v>1.59</v>
@@ -13726,7 +13726,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
         <v>1.34</v>
@@ -14547,7 +14547,7 @@
         <v>1.8</v>
       </c>
       <c r="AP66">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ66">
         <v>1.13</v>
@@ -16198,7 +16198,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.16</v>
@@ -16401,7 +16401,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -19082,7 +19082,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ88">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR88">
         <v>1.19</v>
@@ -19697,7 +19697,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -21012,6 +21012,212 @@
       </c>
       <c r="BP97">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7452356</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45625.625</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>80</v>
+      </c>
+      <c r="H98" t="s">
+        <v>78</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>160</v>
+      </c>
+      <c r="P98" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q98">
+        <v>1.91</v>
+      </c>
+      <c r="R98">
+        <v>2.63</v>
+      </c>
+      <c r="S98">
+        <v>6</v>
+      </c>
+      <c r="T98">
+        <v>1.22</v>
+      </c>
+      <c r="U98">
+        <v>3.75</v>
+      </c>
+      <c r="V98">
+        <v>2.1</v>
+      </c>
+      <c r="W98">
+        <v>1.65</v>
+      </c>
+      <c r="X98">
+        <v>4.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.16</v>
+      </c>
+      <c r="Z98">
+        <v>1.42</v>
+      </c>
+      <c r="AA98">
+        <v>4.75</v>
+      </c>
+      <c r="AB98">
+        <v>6.5</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>17</v>
+      </c>
+      <c r="AE98">
+        <v>1.13</v>
+      </c>
+      <c r="AF98">
+        <v>5.75</v>
+      </c>
+      <c r="AG98">
+        <v>1.48</v>
+      </c>
+      <c r="AH98">
+        <v>2.6</v>
+      </c>
+      <c r="AI98">
+        <v>1.67</v>
+      </c>
+      <c r="AJ98">
+        <v>2.1</v>
+      </c>
+      <c r="AK98">
+        <v>1.11</v>
+      </c>
+      <c r="AL98">
+        <v>1.12</v>
+      </c>
+      <c r="AM98">
+        <v>2.8</v>
+      </c>
+      <c r="AN98">
+        <v>1.71</v>
+      </c>
+      <c r="AO98">
+        <v>0.75</v>
+      </c>
+      <c r="AP98">
+        <v>1.88</v>
+      </c>
+      <c r="AQ98">
+        <v>0.67</v>
+      </c>
+      <c r="AR98">
+        <v>1.56</v>
+      </c>
+      <c r="AS98">
+        <v>1.18</v>
+      </c>
+      <c r="AT98">
+        <v>2.74</v>
+      </c>
+      <c r="AU98">
+        <v>8</v>
+      </c>
+      <c r="AV98">
+        <v>6</v>
+      </c>
+      <c r="AW98">
+        <v>7</v>
+      </c>
+      <c r="AX98">
+        <v>7</v>
+      </c>
+      <c r="AY98">
+        <v>18</v>
+      </c>
+      <c r="AZ98">
+        <v>15</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>8</v>
+      </c>
+      <c r="BC98">
+        <v>13</v>
+      </c>
+      <c r="BD98">
+        <v>1.28</v>
+      </c>
+      <c r="BE98">
+        <v>7.5</v>
+      </c>
+      <c r="BF98">
+        <v>3.65</v>
+      </c>
+      <c r="BG98">
+        <v>1.21</v>
+      </c>
+      <c r="BH98">
+        <v>3.8</v>
+      </c>
+      <c r="BI98">
+        <v>1.38</v>
+      </c>
+      <c r="BJ98">
+        <v>2.75</v>
+      </c>
+      <c r="BK98">
+        <v>2</v>
+      </c>
+      <c r="BL98">
+        <v>2.12</v>
+      </c>
+      <c r="BM98">
+        <v>1.95</v>
+      </c>
+      <c r="BN98">
+        <v>1.77</v>
+      </c>
+      <c r="BO98">
+        <v>2.48</v>
+      </c>
+      <c r="BP98">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,12 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -665,6 +671,18 @@
   </si>
   <si>
     <t>['39', '49']</t>
+  </si>
+  <si>
+    <t>['68', '90+5']</t>
+  </si>
+  <si>
+    <t>['45', '63']</t>
+  </si>
+  <si>
+    <t>['37', '84', '89']</t>
+  </si>
+  <si>
+    <t>['82']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1384,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ2">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1775,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1903,7 +1921,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1981,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ5">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2109,7 +2127,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2187,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2315,7 +2333,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2393,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2521,7 +2539,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2727,7 +2745,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2808,7 +2826,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>1.96</v>
@@ -3139,7 +3157,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3345,7 +3363,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3426,7 +3444,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3838,7 +3856,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR14">
         <v>1.77</v>
@@ -4247,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ16">
         <v>0.78</v>
@@ -4375,7 +4393,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4456,7 +4474,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR17">
         <v>1.41</v>
@@ -4581,7 +4599,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4659,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -4787,7 +4805,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4865,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5199,7 +5217,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5611,7 +5629,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5692,7 +5710,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ23">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR23">
         <v>1.53</v>
@@ -5817,7 +5835,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6023,7 +6041,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6101,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>0.67</v>
@@ -6229,7 +6247,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6307,10 +6325,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ26">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6435,7 +6453,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6516,7 +6534,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6641,7 +6659,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6719,7 +6737,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6847,7 +6865,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7053,7 +7071,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7465,7 +7483,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7546,7 +7564,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR32">
         <v>1.14</v>
@@ -7671,7 +7689,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7752,7 +7770,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR33">
         <v>1.8</v>
@@ -7877,7 +7895,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7955,7 +7973,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -8083,7 +8101,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8289,7 +8307,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8370,7 +8388,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ36">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR36">
         <v>1.69</v>
@@ -8573,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>0.38</v>
@@ -8779,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ38">
         <v>0.13</v>
@@ -8907,7 +8925,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9113,7 +9131,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9319,7 +9337,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9525,7 +9543,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9603,10 +9621,10 @@
         <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ42">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -9937,7 +9955,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10143,7 +10161,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10349,7 +10367,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10555,7 +10573,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10633,7 +10651,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ47">
         <v>0.78</v>
@@ -10842,7 +10860,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR48">
         <v>1.96</v>
@@ -11048,7 +11066,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ49">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11173,7 +11191,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11251,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11585,7 +11603,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11666,7 +11684,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>1.41</v>
@@ -11869,10 +11887,10 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ53">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
         <v>1.13</v>
@@ -11997,7 +12015,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12075,7 +12093,7 @@
         <v>1.75</v>
       </c>
       <c r="AP54">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ54">
         <v>1.33</v>
@@ -12409,7 +12427,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12490,7 +12508,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ56">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -12902,7 +12920,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR58">
         <v>1.05</v>
@@ -13027,7 +13045,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13105,7 +13123,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ59">
         <v>1.25</v>
@@ -13233,7 +13251,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13311,7 +13329,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
@@ -13439,7 +13457,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13645,7 +13663,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13723,7 +13741,7 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ62">
         <v>0.67</v>
@@ -13851,7 +13869,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14057,7 +14075,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14263,7 +14281,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14341,10 +14359,10 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14550,7 +14568,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR66">
         <v>1.84</v>
@@ -14675,7 +14693,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -14753,7 +14771,7 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ67">
         <v>1.5</v>
@@ -14881,7 +14899,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>1.53</v>
@@ -15165,7 +15183,7 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ69">
         <v>0.78</v>
@@ -15293,7 +15311,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15374,7 +15392,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR70">
         <v>1.17</v>
@@ -15499,7 +15517,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>1.95</v>
@@ -15705,7 +15723,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15786,7 +15804,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -16195,7 +16213,7 @@
         <v>0.67</v>
       </c>
       <c r="AP74">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16607,7 +16625,7 @@
         <v>0.6</v>
       </c>
       <c r="AP76">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ76">
         <v>0.38</v>
@@ -16735,7 +16753,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16813,10 +16831,10 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR77">
         <v>1.44</v>
@@ -17022,7 +17040,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ78">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR78">
         <v>1.92</v>
@@ -17353,7 +17371,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17434,7 +17452,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ80">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR80">
         <v>1.37</v>
@@ -17559,7 +17577,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -17765,7 +17783,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17971,7 +17989,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18177,7 +18195,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18383,7 +18401,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18667,10 +18685,10 @@
         <v>0.43</v>
       </c>
       <c r="AP86">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -18873,10 +18891,10 @@
         <v>1.86</v>
       </c>
       <c r="AP87">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ87">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19001,7 +19019,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19079,7 +19097,7 @@
         <v>0.71</v>
       </c>
       <c r="AP88">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ88">
         <v>0.67</v>
@@ -19285,10 +19303,10 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19413,7 +19431,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19619,7 +19637,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -19906,7 +19924,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ92">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR92">
         <v>1.68</v>
@@ -20443,7 +20461,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20649,7 +20667,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21218,6 +21236,830 @@
       </c>
       <c r="BP98">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7452352</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45627.41666666666</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s">
+        <v>76</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>87</v>
+      </c>
+      <c r="P99" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q99">
+        <v>3.1</v>
+      </c>
+      <c r="R99">
+        <v>2.2</v>
+      </c>
+      <c r="S99">
+        <v>3.4</v>
+      </c>
+      <c r="T99">
+        <v>1.33</v>
+      </c>
+      <c r="U99">
+        <v>3.25</v>
+      </c>
+      <c r="V99">
+        <v>2.63</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>7</v>
+      </c>
+      <c r="Y99">
+        <v>1.1</v>
+      </c>
+      <c r="Z99">
+        <v>2.4</v>
+      </c>
+      <c r="AA99">
+        <v>3.4</v>
+      </c>
+      <c r="AB99">
+        <v>2.8</v>
+      </c>
+      <c r="AC99">
+        <v>1.04</v>
+      </c>
+      <c r="AD99">
+        <v>10</v>
+      </c>
+      <c r="AE99">
+        <v>1.25</v>
+      </c>
+      <c r="AF99">
+        <v>3.95</v>
+      </c>
+      <c r="AG99">
+        <v>1.85</v>
+      </c>
+      <c r="AH99">
+        <v>1.95</v>
+      </c>
+      <c r="AI99">
+        <v>1.7</v>
+      </c>
+      <c r="AJ99">
+        <v>2.05</v>
+      </c>
+      <c r="AK99">
+        <v>1.38</v>
+      </c>
+      <c r="AL99">
+        <v>1.22</v>
+      </c>
+      <c r="AM99">
+        <v>1.62</v>
+      </c>
+      <c r="AN99">
+        <v>0.88</v>
+      </c>
+      <c r="AO99">
+        <v>0.5</v>
+      </c>
+      <c r="AP99">
+        <v>0.78</v>
+      </c>
+      <c r="AQ99">
+        <v>0.78</v>
+      </c>
+      <c r="AR99">
+        <v>1.21</v>
+      </c>
+      <c r="AS99">
+        <v>1.32</v>
+      </c>
+      <c r="AT99">
+        <v>2.53</v>
+      </c>
+      <c r="AU99">
+        <v>3</v>
+      </c>
+      <c r="AV99">
+        <v>4</v>
+      </c>
+      <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99">
+        <v>3</v>
+      </c>
+      <c r="AY99">
+        <v>8</v>
+      </c>
+      <c r="AZ99">
+        <v>11</v>
+      </c>
+      <c r="BA99">
+        <v>2</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>6</v>
+      </c>
+      <c r="BD99">
+        <v>1.76</v>
+      </c>
+      <c r="BE99">
+        <v>6.4</v>
+      </c>
+      <c r="BF99">
+        <v>2.15</v>
+      </c>
+      <c r="BG99">
+        <v>1.21</v>
+      </c>
+      <c r="BH99">
+        <v>3.8</v>
+      </c>
+      <c r="BI99">
+        <v>1.38</v>
+      </c>
+      <c r="BJ99">
+        <v>2.7</v>
+      </c>
+      <c r="BK99">
+        <v>1.91</v>
+      </c>
+      <c r="BL99">
+        <v>2.1</v>
+      </c>
+      <c r="BM99">
+        <v>1.91</v>
+      </c>
+      <c r="BN99">
+        <v>1.8</v>
+      </c>
+      <c r="BO99">
+        <v>2.5</v>
+      </c>
+      <c r="BP99">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7452355</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45627.41666666666</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s">
+        <v>77</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>161</v>
+      </c>
+      <c r="P100" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q100">
+        <v>3</v>
+      </c>
+      <c r="R100">
+        <v>2.3</v>
+      </c>
+      <c r="S100">
+        <v>3.2</v>
+      </c>
+      <c r="T100">
+        <v>1.33</v>
+      </c>
+      <c r="U100">
+        <v>3.25</v>
+      </c>
+      <c r="V100">
+        <v>2.5</v>
+      </c>
+      <c r="W100">
+        <v>1.5</v>
+      </c>
+      <c r="X100">
+        <v>6.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.11</v>
+      </c>
+      <c r="Z100">
+        <v>2.45</v>
+      </c>
+      <c r="AA100">
+        <v>3.6</v>
+      </c>
+      <c r="AB100">
+        <v>2.63</v>
+      </c>
+      <c r="AC100">
+        <v>1.04</v>
+      </c>
+      <c r="AD100">
+        <v>10</v>
+      </c>
+      <c r="AE100">
+        <v>1.2</v>
+      </c>
+      <c r="AF100">
+        <v>4.33</v>
+      </c>
+      <c r="AG100">
+        <v>1.7</v>
+      </c>
+      <c r="AH100">
+        <v>2.1</v>
+      </c>
+      <c r="AI100">
+        <v>1.57</v>
+      </c>
+      <c r="AJ100">
+        <v>2.25</v>
+      </c>
+      <c r="AK100">
+        <v>1.45</v>
+      </c>
+      <c r="AL100">
+        <v>1.25</v>
+      </c>
+      <c r="AM100">
+        <v>1.53</v>
+      </c>
+      <c r="AN100">
+        <v>2</v>
+      </c>
+      <c r="AO100">
+        <v>1.63</v>
+      </c>
+      <c r="AP100">
+        <v>1.75</v>
+      </c>
+      <c r="AQ100">
+        <v>1.78</v>
+      </c>
+      <c r="AR100">
+        <v>1.46</v>
+      </c>
+      <c r="AS100">
+        <v>1.29</v>
+      </c>
+      <c r="AT100">
+        <v>2.75</v>
+      </c>
+      <c r="AU100">
+        <v>3</v>
+      </c>
+      <c r="AV100">
+        <v>6</v>
+      </c>
+      <c r="AW100">
+        <v>4</v>
+      </c>
+      <c r="AX100">
+        <v>6</v>
+      </c>
+      <c r="AY100">
+        <v>10</v>
+      </c>
+      <c r="AZ100">
+        <v>14</v>
+      </c>
+      <c r="BA100">
+        <v>2</v>
+      </c>
+      <c r="BB100">
+        <v>13</v>
+      </c>
+      <c r="BC100">
+        <v>15</v>
+      </c>
+      <c r="BD100">
+        <v>2.07</v>
+      </c>
+      <c r="BE100">
+        <v>6.4</v>
+      </c>
+      <c r="BF100">
+        <v>1.81</v>
+      </c>
+      <c r="BG100">
+        <v>1.16</v>
+      </c>
+      <c r="BH100">
+        <v>4.3</v>
+      </c>
+      <c r="BI100">
+        <v>1.3</v>
+      </c>
+      <c r="BJ100">
+        <v>3.05</v>
+      </c>
+      <c r="BK100">
+        <v>1.83</v>
+      </c>
+      <c r="BL100">
+        <v>2.33</v>
+      </c>
+      <c r="BM100">
+        <v>1.85</v>
+      </c>
+      <c r="BN100">
+        <v>1.85</v>
+      </c>
+      <c r="BO100">
+        <v>2.23</v>
+      </c>
+      <c r="BP100">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7452354</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45627.5</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>73</v>
+      </c>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>87</v>
+      </c>
+      <c r="P101" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q101">
+        <v>4.5</v>
+      </c>
+      <c r="R101">
+        <v>2.3</v>
+      </c>
+      <c r="S101">
+        <v>2.3</v>
+      </c>
+      <c r="T101">
+        <v>1.29</v>
+      </c>
+      <c r="U101">
+        <v>3.5</v>
+      </c>
+      <c r="V101">
+        <v>2.25</v>
+      </c>
+      <c r="W101">
+        <v>1.57</v>
+      </c>
+      <c r="X101">
+        <v>5.5</v>
+      </c>
+      <c r="Y101">
+        <v>1.14</v>
+      </c>
+      <c r="Z101">
+        <v>4.33</v>
+      </c>
+      <c r="AA101">
+        <v>3.75</v>
+      </c>
+      <c r="AB101">
+        <v>1.75</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>20</v>
+      </c>
+      <c r="AE101">
+        <v>1.17</v>
+      </c>
+      <c r="AF101">
+        <v>4.95</v>
+      </c>
+      <c r="AG101">
+        <v>1.67</v>
+      </c>
+      <c r="AH101">
+        <v>2.15</v>
+      </c>
+      <c r="AI101">
+        <v>1.67</v>
+      </c>
+      <c r="AJ101">
+        <v>2.1</v>
+      </c>
+      <c r="AK101">
+        <v>2.45</v>
+      </c>
+      <c r="AL101">
+        <v>1.17</v>
+      </c>
+      <c r="AM101">
+        <v>1.16</v>
+      </c>
+      <c r="AN101">
+        <v>0.63</v>
+      </c>
+      <c r="AO101">
+        <v>1.13</v>
+      </c>
+      <c r="AP101">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ101">
+        <v>1.33</v>
+      </c>
+      <c r="AR101">
+        <v>1.36</v>
+      </c>
+      <c r="AS101">
+        <v>1.56</v>
+      </c>
+      <c r="AT101">
+        <v>2.92</v>
+      </c>
+      <c r="AU101">
+        <v>6</v>
+      </c>
+      <c r="AV101">
+        <v>6</v>
+      </c>
+      <c r="AW101">
+        <v>11</v>
+      </c>
+      <c r="AX101">
+        <v>4</v>
+      </c>
+      <c r="AY101">
+        <v>24</v>
+      </c>
+      <c r="AZ101">
+        <v>12</v>
+      </c>
+      <c r="BA101">
+        <v>10</v>
+      </c>
+      <c r="BB101">
+        <v>9</v>
+      </c>
+      <c r="BC101">
+        <v>19</v>
+      </c>
+      <c r="BD101">
+        <v>2.7</v>
+      </c>
+      <c r="BE101">
+        <v>6.75</v>
+      </c>
+      <c r="BF101">
+        <v>1.49</v>
+      </c>
+      <c r="BG101">
+        <v>1.19</v>
+      </c>
+      <c r="BH101">
+        <v>4.1</v>
+      </c>
+      <c r="BI101">
+        <v>1.33</v>
+      </c>
+      <c r="BJ101">
+        <v>2.95</v>
+      </c>
+      <c r="BK101">
+        <v>2</v>
+      </c>
+      <c r="BL101">
+        <v>2.28</v>
+      </c>
+      <c r="BM101">
+        <v>1.95</v>
+      </c>
+      <c r="BN101">
+        <v>1.77</v>
+      </c>
+      <c r="BO101">
+        <v>2.32</v>
+      </c>
+      <c r="BP101">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7452353</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45627.58333333334</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>72</v>
+      </c>
+      <c r="H102" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>162</v>
+      </c>
+      <c r="P102" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q102">
+        <v>4.33</v>
+      </c>
+      <c r="R102">
+        <v>2.1</v>
+      </c>
+      <c r="S102">
+        <v>2.6</v>
+      </c>
+      <c r="T102">
+        <v>1.4</v>
+      </c>
+      <c r="U102">
+        <v>2.75</v>
+      </c>
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102">
+        <v>1.36</v>
+      </c>
+      <c r="X102">
+        <v>8</v>
+      </c>
+      <c r="Y102">
+        <v>1.08</v>
+      </c>
+      <c r="Z102">
+        <v>3.02</v>
+      </c>
+      <c r="AA102">
+        <v>3.14</v>
+      </c>
+      <c r="AB102">
+        <v>2.11</v>
+      </c>
+      <c r="AC102">
+        <v>1.04</v>
+      </c>
+      <c r="AD102">
+        <v>10.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.32</v>
+      </c>
+      <c r="AF102">
+        <v>3.35</v>
+      </c>
+      <c r="AG102">
+        <v>2.01</v>
+      </c>
+      <c r="AH102">
+        <v>1.85</v>
+      </c>
+      <c r="AI102">
+        <v>1.8</v>
+      </c>
+      <c r="AJ102">
+        <v>1.95</v>
+      </c>
+      <c r="AK102">
+        <v>1.7</v>
+      </c>
+      <c r="AL102">
+        <v>1.26</v>
+      </c>
+      <c r="AM102">
+        <v>1.35</v>
+      </c>
+      <c r="AN102">
+        <v>1.88</v>
+      </c>
+      <c r="AO102">
+        <v>1.14</v>
+      </c>
+      <c r="AP102">
+        <v>1.78</v>
+      </c>
+      <c r="AQ102">
+        <v>1.13</v>
+      </c>
+      <c r="AR102">
+        <v>1.25</v>
+      </c>
+      <c r="AS102">
+        <v>1.08</v>
+      </c>
+      <c r="AT102">
+        <v>2.33</v>
+      </c>
+      <c r="AU102">
+        <v>7</v>
+      </c>
+      <c r="AV102">
+        <v>6</v>
+      </c>
+      <c r="AW102">
+        <v>4</v>
+      </c>
+      <c r="AX102">
+        <v>4</v>
+      </c>
+      <c r="AY102">
+        <v>13</v>
+      </c>
+      <c r="AZ102">
+        <v>13</v>
+      </c>
+      <c r="BA102">
+        <v>1</v>
+      </c>
+      <c r="BB102">
+        <v>2</v>
+      </c>
+      <c r="BC102">
+        <v>3</v>
+      </c>
+      <c r="BD102">
+        <v>2.43</v>
+      </c>
+      <c r="BE102">
+        <v>6.25</v>
+      </c>
+      <c r="BF102">
+        <v>1.61</v>
+      </c>
+      <c r="BG102">
+        <v>1.33</v>
+      </c>
+      <c r="BH102">
+        <v>2.95</v>
+      </c>
+      <c r="BI102">
+        <v>1.56</v>
+      </c>
+      <c r="BJ102">
+        <v>2.25</v>
+      </c>
+      <c r="BK102">
+        <v>2.25</v>
+      </c>
+      <c r="BL102">
+        <v>1.91</v>
+      </c>
+      <c r="BM102">
+        <v>2.4</v>
+      </c>
+      <c r="BN102">
+        <v>1.49</v>
+      </c>
+      <c r="BO102">
+        <v>3.15</v>
+      </c>
+      <c r="BP102">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['41', '81', '83']</t>
   </si>
   <si>
     <t>['53', '59', '90+2']</t>
@@ -1044,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1921,7 +1924,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2127,7 +2130,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2333,7 +2336,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2539,7 +2542,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2745,7 +2748,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3157,7 +3160,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3363,7 +3366,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3441,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>1.13</v>
@@ -4393,7 +4396,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4471,7 +4474,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>1.78</v>
@@ -4599,7 +4602,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4805,7 +4808,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4886,7 +4889,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR19">
         <v>1.07</v>
@@ -5217,7 +5220,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5629,7 +5632,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5835,7 +5838,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6041,7 +6044,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6247,7 +6250,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6453,7 +6456,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6659,7 +6662,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6740,7 +6743,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR28">
         <v>1.19</v>
@@ -6865,7 +6868,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6943,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>0.78</v>
@@ -7071,7 +7074,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7483,7 +7486,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7689,7 +7692,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7895,7 +7898,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8101,7 +8104,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8307,7 +8310,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8925,7 +8928,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9006,7 +9009,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR39">
         <v>1.84</v>
@@ -9131,7 +9134,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9209,7 +9212,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9337,7 +9340,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9543,7 +9546,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9955,7 +9958,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10161,7 +10164,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10367,7 +10370,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10573,7 +10576,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11191,7 +11194,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11272,7 +11275,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
         <v>1.51</v>
@@ -11603,7 +11606,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12015,7 +12018,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12299,7 +12302,7 @@
         <v>0.75</v>
       </c>
       <c r="AP55">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55">
         <v>0.67</v>
@@ -12427,7 +12430,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13045,7 +13048,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13251,7 +13254,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13457,7 +13460,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13663,7 +13666,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13869,7 +13872,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -13950,7 +13953,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR63">
         <v>1.52</v>
@@ -14075,7 +14078,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14281,7 +14284,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14693,7 +14696,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -14899,7 +14902,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>1.53</v>
@@ -14977,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ68">
         <v>0.13</v>
@@ -15311,7 +15314,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15517,7 +15520,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>1.95</v>
@@ -15723,7 +15726,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16753,7 +16756,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17246,7 +17249,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17371,7 +17374,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17577,7 +17580,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -17783,7 +17786,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17989,7 +17992,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18195,7 +18198,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18401,7 +18404,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18479,7 +18482,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ85">
         <v>1.25</v>
@@ -19019,7 +19022,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19431,7 +19434,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19637,7 +19640,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -19718,7 +19721,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR91">
         <v>1.65</v>
@@ -20461,7 +20464,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20667,7 +20670,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -20745,7 +20748,7 @@
         <v>0.43</v>
       </c>
       <c r="AP96">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ96">
         <v>0.38</v>
@@ -21285,7 +21288,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21491,7 +21494,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21697,7 +21700,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21903,7 +21906,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22060,6 +22063,212 @@
       </c>
       <c r="BP102">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7452351</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45628.625</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s">
+        <v>71</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>163</v>
+      </c>
+      <c r="P103" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q103">
+        <v>2.5</v>
+      </c>
+      <c r="R103">
+        <v>2.3</v>
+      </c>
+      <c r="S103">
+        <v>4</v>
+      </c>
+      <c r="T103">
+        <v>1.33</v>
+      </c>
+      <c r="U103">
+        <v>3.25</v>
+      </c>
+      <c r="V103">
+        <v>2.63</v>
+      </c>
+      <c r="W103">
+        <v>1.44</v>
+      </c>
+      <c r="X103">
+        <v>6.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.11</v>
+      </c>
+      <c r="Z103">
+        <v>1.9</v>
+      </c>
+      <c r="AA103">
+        <v>3.6</v>
+      </c>
+      <c r="AB103">
+        <v>3.9</v>
+      </c>
+      <c r="AC103">
+        <v>1.03</v>
+      </c>
+      <c r="AD103">
+        <v>12.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.25</v>
+      </c>
+      <c r="AF103">
+        <v>3.95</v>
+      </c>
+      <c r="AG103">
+        <v>1.7</v>
+      </c>
+      <c r="AH103">
+        <v>2.1</v>
+      </c>
+      <c r="AI103">
+        <v>1.62</v>
+      </c>
+      <c r="AJ103">
+        <v>2.2</v>
+      </c>
+      <c r="AK103">
+        <v>1.32</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.8</v>
+      </c>
+      <c r="AN103">
+        <v>2.25</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AP103">
+        <v>2.33</v>
+      </c>
+      <c r="AQ103">
+        <v>0.88</v>
+      </c>
+      <c r="AR103">
+        <v>2.05</v>
+      </c>
+      <c r="AS103">
+        <v>1.66</v>
+      </c>
+      <c r="AT103">
+        <v>3.71</v>
+      </c>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>4</v>
+      </c>
+      <c r="AW103">
+        <v>3</v>
+      </c>
+      <c r="AX103">
+        <v>4</v>
+      </c>
+      <c r="AY103">
+        <v>9</v>
+      </c>
+      <c r="AZ103">
+        <v>11</v>
+      </c>
+      <c r="BA103">
+        <v>0</v>
+      </c>
+      <c r="BB103">
+        <v>4</v>
+      </c>
+      <c r="BC103">
+        <v>4</v>
+      </c>
+      <c r="BD103">
+        <v>1.74</v>
+      </c>
+      <c r="BE103">
+        <v>6.4</v>
+      </c>
+      <c r="BF103">
+        <v>2.18</v>
+      </c>
+      <c r="BG103">
+        <v>1.24</v>
+      </c>
+      <c r="BH103">
+        <v>3.55</v>
+      </c>
+      <c r="BI103">
+        <v>1.41</v>
+      </c>
+      <c r="BJ103">
+        <v>2.65</v>
+      </c>
+      <c r="BK103">
+        <v>2.1</v>
+      </c>
+      <c r="BL103">
+        <v>1.95</v>
+      </c>
+      <c r="BM103">
+        <v>2.07</v>
+      </c>
+      <c r="BN103">
+        <v>1.66</v>
+      </c>
+      <c r="BO103">
+        <v>2.65</v>
+      </c>
+      <c r="BP103">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
